--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\PycharmProjects\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD75BD-DA21-4BAD-8285-9B5C45356CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D37E2-A398-46FD-9EE5-9030E21FF43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>Endurance</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Assuming foam</t>
   </si>
   <si>
-    <t>Electronics weight [g]</t>
-  </si>
-  <si>
     <t>Misc structural components [g]</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Total Energy with eff[Wh]</t>
   </si>
   <si>
-    <t>Weight of Battery[kg]</t>
-  </si>
-  <si>
     <t>Iteration 1</t>
   </si>
   <si>
@@ -309,7 +303,16 @@
     <t>tot_eff</t>
   </si>
   <si>
-    <t>tot_weight</t>
+    <t>tot_mass</t>
+  </si>
+  <si>
+    <t>Electronics_mass [g]</t>
+  </si>
+  <si>
+    <t>mass of Battery[kg]</t>
+  </si>
+  <si>
+    <t>Avionics</t>
   </si>
 </sst>
 </file>
@@ -1316,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B915B4-BD30-49C6-A198-1B084417476D}">
-  <dimension ref="A3:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,9 +1332,25 @@
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>81</v>
+      <c r="A3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1339,7 +1358,7 @@
         <v>83</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1347,7 +1366,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1355,7 +1374,7 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,7 +1382,7 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>2.4</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1371,7 +1390,7 @@
         <v>87</v>
       </c>
       <c r="B8">
-        <v>1.1000000000000001</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1379,129 +1398,115 @@
         <v>88</v>
       </c>
       <c r="B9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B10">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <f>B10*9.81/1000/B12</f>
+        <v>97.020000000000024</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <f>B10*9.81/1000/B6/0.5/1.225/B3^2</f>
+        <v>0.66279684601113165</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>6555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13">
-        <f>B12*9.81/1000/B14</f>
-        <v>97.020000000000024</v>
-      </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <f>B12*9.81/1000/B8/0.5/1.225/B5^2</f>
-        <v>0.66279684601113165</v>
-      </c>
-      <c r="C14" s="6"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <f>B12/B5</f>
+        <v>0.2761653525046382</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>B3*B7/B6*B10*9.81/1000</f>
+        <v>52.612813636363633</v>
+      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17">
-        <f>B14/B7</f>
-        <v>0.2761653525046382</v>
+        <f>B16*B4/60</f>
+        <v>105.22562727272727</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18">
-        <f>B5*B9/B8*B12*9.81/1000</f>
-        <v>52.612813636363633</v>
+        <f>B17/B9</f>
+        <v>175.37604545454545</v>
       </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B19">
-        <f>B18*B6/60</f>
-        <v>105.22562727272727</v>
+        <f>B18/B8</f>
+        <v>1.0316237967914439</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <f>B19/B11</f>
-        <v>175.37604545454545</v>
+        <f>B5^2/B12</f>
+        <v>8.6904456994100734</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21">
-        <f>B20/B10</f>
-        <v>1.0316237967914439</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <f>B7^2/B14</f>
-        <v>8.6904456994100734</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1519,6 +1524,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D127771C2DDC684C81C9751FD38B1D82" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="51497b57ec2acbc1c79a151b8127cce6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f525c1f-400e-47f8-8a8b-5e89483b5ff6" xmlns:ns3="46afbdc8-40ba-417d-b3e9-facef3290d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e39b47c12fb678d8dc5f180187a6617a" ns2:_="" ns3:_="">
     <xsd:import namespace="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
@@ -1741,17 +1757,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
@@ -1761,6 +1766,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A0643-B027-4F88-A169-B5925B67F81E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1777,21 +1799,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\PycharmProjects\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D37E2-A398-46FD-9EE5-9030E21FF43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94287EE5-111E-4D91-A0EA-A9EFFF32945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Endurance</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Assuming foam</t>
   </si>
   <si>
-    <t>Misc structural components [g]</t>
-  </si>
-  <si>
     <t>Wing Area[m2]</t>
   </si>
   <si>
@@ -306,13 +303,25 @@
     <t>tot_mass</t>
   </si>
   <si>
-    <t>Electronics_mass [g]</t>
-  </si>
-  <si>
     <t>mass of Battery[kg]</t>
   </si>
   <si>
     <t>Avionics</t>
+  </si>
+  <si>
+    <t>Plasma_Actuators</t>
+  </si>
+  <si>
+    <t>Fuselage</t>
+  </si>
+  <si>
+    <t>Wing_Mass</t>
+  </si>
+  <si>
+    <t>Propulsion</t>
+  </si>
+  <si>
+    <t>Empanage</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B915B4-BD30-49C6-A198-1B084417476D}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,12 +1343,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -1347,7 +1356,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -1355,7 +1364,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -1363,7 +1372,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>2.4</v>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1.1000000000000001</v>
@@ -1379,7 +1388,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>7.4999999999999997E-2</v>
@@ -1387,7 +1396,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>170</v>
@@ -1395,7 +1404,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>6555</v>
@@ -1411,7 +1420,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <f>B10*9.81/1000/B12</f>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <f>B10*9.81/1000/B6/0.5/1.225/B3^2</f>
@@ -1431,74 +1440,73 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <f>B12/B5</f>
+        <v>0.2761653525046382</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <f>B3*B7/B6*B10*9.81/1000</f>
+        <v>52.612813636363633</v>
+      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15">
-        <f>B12/B5</f>
-        <v>0.2761653525046382</v>
+        <f>B14*B4/60</f>
+        <v>105.22562727272727</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16">
-        <f>B3*B7/B6*B10*9.81/1000</f>
-        <v>52.612813636363633</v>
+        <f>B15/B9</f>
+        <v>175.37604545454545</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B17">
-        <f>B16*B4/60</f>
-        <v>105.22562727272727</v>
+        <f>B16/B8</f>
+        <v>1.0316237967914439</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <f>B17/B9</f>
-        <v>175.37604545454545</v>
+        <f>B5^2/B12</f>
+        <v>8.6904456994100734</v>
       </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19">
-        <f>B18/B8</f>
-        <v>1.0316237967914439</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <f>B5^2/B12</f>
-        <v>8.6904456994100734</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -1506,7 +1514,19 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,17 +1544,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D127771C2DDC684C81C9751FD38B1D82" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="51497b57ec2acbc1c79a151b8127cce6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f525c1f-400e-47f8-8a8b-5e89483b5ff6" xmlns:ns3="46afbdc8-40ba-417d-b3e9-facef3290d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e39b47c12fb678d8dc5f180187a6617a" ns2:_="" ns3:_="">
     <xsd:import namespace="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
@@ -1757,6 +1766,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
@@ -1766,23 +1786,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A0643-B027-4F88-A169-B5925B67F81E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1799,4 +1802,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\PycharmProjects\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94287EE5-111E-4D91-A0EA-A9EFFF32945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050F4A0-E584-48B6-AE7F-D0FF9F49CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="102" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,30 +1502,48 @@
       <c r="A19" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="B19">
+        <v>655</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>91</v>
       </c>
+      <c r="B20">
+        <v>588</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="B22">
+        <v>62.78</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>95</v>
+      </c>
+      <c r="B24">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1544,6 +1562,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D127771C2DDC684C81C9751FD38B1D82" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="51497b57ec2acbc1c79a151b8127cce6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f525c1f-400e-47f8-8a8b-5e89483b5ff6" xmlns:ns3="46afbdc8-40ba-417d-b3e9-facef3290d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e39b47c12fb678d8dc5f180187a6617a" ns2:_="" ns3:_="">
     <xsd:import namespace="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
@@ -1766,17 +1795,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
@@ -1786,6 +1804,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A0643-B027-4F88-A169-B5925B67F81E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1802,21 +1837,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\PycharmProjects\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050F4A0-E584-48B6-AE7F-D0FF9F49CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A88509-12DE-4EBB-ACF7-CCC06FD91601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1391,7 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B14">
         <f>B3*B7/B6*B10*9.81/1000</f>
-        <v>52.612813636363633</v>
+        <v>80.813281745454546</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B15">
         <f>B14*B4/60</f>
-        <v>105.22562727272727</v>
+        <v>161.62656349090909</v>
       </c>
       <c r="C15" s="6"/>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B16">
         <f>B15/B9</f>
-        <v>175.37604545454545</v>
+        <v>269.37760581818185</v>
       </c>
       <c r="C16" s="6"/>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B17">
         <f>B16/B8</f>
-        <v>1.0316237967914439</v>
+        <v>1.5845741518716578</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -1562,17 +1562,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D127771C2DDC684C81C9751FD38B1D82" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="51497b57ec2acbc1c79a151b8127cce6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f525c1f-400e-47f8-8a8b-5e89483b5ff6" xmlns:ns3="46afbdc8-40ba-417d-b3e9-facef3290d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e39b47c12fb678d8dc5f180187a6617a" ns2:_="" ns3:_="">
     <xsd:import namespace="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
@@ -1795,6 +1784,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
@@ -1804,23 +1804,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A0643-B027-4F88-A169-B5925B67F81E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1837,4 +1820,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronni\PycharmProjects\DSE-Group16\Preliminary Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickr\OneDrive\Desktop\DSE\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A88509-12DE-4EBB-ACF7-CCC06FD91601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B769E-53AC-4A5D-AD4E-78287E7A4D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>Endurance</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Empanage</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
@@ -852,18 +855,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -921,7 +924,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -982,7 +985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>52.612813636363626</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>105.22562727272725</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>64.304550000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>54.494549999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>2.7957289976759264E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>3.3510567888481391E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1188,12 +1191,12 @@
         <v>4.3844011363636355</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>8.6904456994100716</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1219,12 +1222,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1244,17 +1247,17 @@
         <v>14.666666666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -1331,22 +1334,25 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
       <c r="B1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>80</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>81</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>82</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>83</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>84</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>85</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>86</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
@@ -1428,7 +1434,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -1438,7 +1444,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
@@ -1448,7 +1454,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>75</v>
       </c>
@@ -1458,7 +1464,7 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -1468,7 +1474,7 @@
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>77</v>
       </c>
@@ -1478,7 +1484,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>89</v>
       </c>
@@ -1488,7 +1494,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1504,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>90</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>91</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>92</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>62.78</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>94</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>95</v>
       </c>
@@ -1553,12 +1559,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,20 +1793,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1823,18 +1838,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickr\OneDrive\Desktop\DSE\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B769E-53AC-4A5D-AD4E-78287E7A4D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D9663-9F27-4A7C-83C9-65EE2B9C3EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Class_1_New" sheetId="2" r:id="rId2"/>
+    <sheet name="Class_1_Newer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Endurance</t>
   </si>
@@ -325,6 +326,63 @@
   </si>
   <si>
     <t>variable</t>
+  </si>
+  <si>
+    <t>mPAY</t>
+  </si>
+  <si>
+    <t>mAVC</t>
+  </si>
+  <si>
+    <t>mPCS</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>taper</t>
+  </si>
+  <si>
+    <t>cd0</t>
+  </si>
+  <si>
+    <t>Uden</t>
+  </si>
+  <si>
+    <t>EffProp</t>
+  </si>
+  <si>
+    <t>EffBat</t>
+  </si>
+  <si>
+    <t>mTOT</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>m/s2</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B915B4-BD30-49C6-A198-1B084417476D}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,15 +1616,236 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48299F97-9D9A-466A-92E5-3372F2CBAC95}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>6.55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>2.4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,27 +2072,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1838,9 +2110,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickr\OneDrive\Desktop\DSE\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D9663-9F27-4A7C-83C9-65EE2B9C3EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D20AB84-3BAA-4E99-AF99-52BF6AD29B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="118">
   <si>
     <t>Endurance</t>
   </si>
@@ -340,9 +340,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>taper</t>
-  </si>
-  <si>
     <t>cd0</t>
   </si>
   <si>
@@ -383,6 +380,15 @@
   </si>
   <si>
     <t>m/s2</t>
+  </si>
+  <si>
+    <t>mLND</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -909,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48299F97-9D9A-466A-92E5-3372F2CBAC95}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,18 +1637,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>6.55</v>
@@ -1686,54 +1692,54 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B9">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -1741,98 +1747,114 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>1.95E-2</v>
+        <v>2.4</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12">
-        <v>170</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B15">
-        <v>1.2250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>9.8066499999999994</v>
       </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,6 +1871,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D127771C2DDC684C81C9751FD38B1D82" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="51497b57ec2acbc1c79a151b8127cce6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f525c1f-400e-47f8-8a8b-5e89483b5ff6" xmlns:ns3="46afbdc8-40ba-417d-b3e9-facef3290d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e39b47c12fb678d8dc5f180187a6617a" ns2:_="" ns3:_="">
     <xsd:import namespace="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
@@ -2071,17 +2104,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
@@ -2091,6 +2113,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A0643-B027-4F88-A169-B5925B67F81E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2107,21 +2146,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC0E709-943E-4B79-A9CE-4F36B1B41FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Preliminary Design/Preliminary design.xlsx
+++ b/Preliminary Design/Preliminary design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickr\OneDrive\Desktop\DSE\DSE-Group16\Preliminary Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D20AB84-3BAA-4E99-AF99-52BF6AD29B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D3C581-936B-42B4-BBD8-9ED5044CBCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -915,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48299F97-9D9A-466A-92E5-3372F2CBAC95}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1784,7 @@
         <v>102</v>
       </c>
       <c r="B14">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -1862,26 +1862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D127771C2DDC684C81C9751FD38B1D82" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="51497b57ec2acbc1c79a151b8127cce6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f525c1f-400e-47f8-8a8b-5e89483b5ff6" xmlns:ns3="46afbdc8-40ba-417d-b3e9-facef3290d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e39b47c12fb678d8dc5f180187a6617a" ns2:_="" ns3:_="">
     <xsd:import namespace="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
@@ -2104,10 +2084,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46afbdc8-40ba-417d-b3e9-facef3290d04" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f525c1f-400e-47f8-8a8b-5e89483b5ff6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A0643-B027-4F88-A169-B5925B67F81E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
+    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2130,20 +2141,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A0643-B027-4F88-A169-B5925B67F81E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9B072D-86E3-4A96-9AC4-295CB7F542B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1f525c1f-400e-47f8-8a8b-5e89483b5ff6"/>
-    <ds:schemaRef ds:uri="46afbdc8-40ba-417d-b3e9-facef3290d04"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>